--- a/xlsx/索羅門群島_intext.xlsx
+++ b/xlsx/索羅門群島_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1414">
   <si>
     <t>索羅門群島</t>
   </si>
@@ -29,7 +29,7 @@
     <t>索羅門群島國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_索羅門群島</t>
+    <t>体育运动_体育运动_南非_索羅門群島</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E7%BE%A4%E5%B2%9B%E5%9B%BD%E5%BE%BD</t>
@@ -336,12 +336,6 @@
   </si>
   <si>
     <t>第二次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E6%8D%A9%E9%BB%9E</t>
-  </si>
-  <si>
-    <t>轉捩點</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%B8%8D%E5%8F%91%E8%BE%BE%E5%9B%BD%E5%AE%B6</t>
@@ -4611,7 +4605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I725"/>
+  <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5158,7 +5152,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -6289,7 +6283,7 @@
         <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -6318,7 +6312,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -6347,7 +6341,7 @@
         <v>114</v>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -6376,7 +6370,7 @@
         <v>116</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -6405,7 +6399,7 @@
         <v>118</v>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -6608,7 +6602,7 @@
         <v>132</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -6637,7 +6631,7 @@
         <v>134</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -6782,7 +6776,7 @@
         <v>144</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -6811,7 +6805,7 @@
         <v>146</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -6840,7 +6834,7 @@
         <v>148</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -6869,7 +6863,7 @@
         <v>150</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -6898,7 +6892,7 @@
         <v>152</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -6927,7 +6921,7 @@
         <v>154</v>
       </c>
       <c r="G80" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -6985,7 +6979,7 @@
         <v>158</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -7014,7 +7008,7 @@
         <v>160</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -7043,7 +7037,7 @@
         <v>162</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -7101,7 +7095,7 @@
         <v>166</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -7130,7 +7124,7 @@
         <v>168</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -7159,7 +7153,7 @@
         <v>170</v>
       </c>
       <c r="G88" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -7246,7 +7240,7 @@
         <v>176</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -7304,7 +7298,7 @@
         <v>180</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -7333,7 +7327,7 @@
         <v>182</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -7362,7 +7356,7 @@
         <v>184</v>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -7449,7 +7443,7 @@
         <v>190</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -7478,7 +7472,7 @@
         <v>192</v>
       </c>
       <c r="G99" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -7565,7 +7559,7 @@
         <v>198</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -7594,7 +7588,7 @@
         <v>200</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -7652,7 +7646,7 @@
         <v>204</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -7675,13 +7669,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -7704,10 +7698,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -7739,7 +7733,7 @@
         <v>208</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -7971,7 +7965,7 @@
         <v>224</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -7994,13 +7988,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -8023,10 +8017,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -8052,10 +8046,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -8081,13 +8075,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -8116,7 +8110,7 @@
         <v>230</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -8145,7 +8139,7 @@
         <v>232</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -8174,7 +8168,7 @@
         <v>234</v>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -8203,7 +8197,7 @@
         <v>236</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -8232,7 +8226,7 @@
         <v>238</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -8261,7 +8255,7 @@
         <v>240</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -8290,7 +8284,7 @@
         <v>242</v>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -8377,7 +8371,7 @@
         <v>248</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -8406,7 +8400,7 @@
         <v>250</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -8464,7 +8458,7 @@
         <v>254</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -8493,7 +8487,7 @@
         <v>256</v>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -8719,10 +8713,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8748,13 +8742,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -8783,7 +8777,7 @@
         <v>274</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -8899,7 +8893,7 @@
         <v>282</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -8928,7 +8922,7 @@
         <v>284</v>
       </c>
       <c r="G149" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -9247,7 +9241,7 @@
         <v>306</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -9276,7 +9270,7 @@
         <v>308</v>
       </c>
       <c r="G161" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -9305,7 +9299,7 @@
         <v>310</v>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -9508,7 +9502,7 @@
         <v>324</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -9537,7 +9531,7 @@
         <v>326</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -9624,7 +9618,7 @@
         <v>332</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -9711,7 +9705,7 @@
         <v>338</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -9740,7 +9734,7 @@
         <v>340</v>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -9798,7 +9792,7 @@
         <v>344</v>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -9972,7 +9966,7 @@
         <v>356</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -10001,7 +9995,7 @@
         <v>358</v>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -10030,7 +10024,7 @@
         <v>360</v>
       </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -10059,7 +10053,7 @@
         <v>362</v>
       </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -10088,7 +10082,7 @@
         <v>364</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -10117,7 +10111,7 @@
         <v>366</v>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -10146,7 +10140,7 @@
         <v>368</v>
       </c>
       <c r="G191" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -10175,7 +10169,7 @@
         <v>370</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -10320,7 +10314,7 @@
         <v>380</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -10349,7 +10343,7 @@
         <v>382</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -10436,7 +10430,7 @@
         <v>388</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -10465,7 +10459,7 @@
         <v>390</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -10523,7 +10517,7 @@
         <v>394</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -10552,7 +10546,7 @@
         <v>396</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -10581,7 +10575,7 @@
         <v>398</v>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -10610,7 +10604,7 @@
         <v>400</v>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -10668,7 +10662,7 @@
         <v>404</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -10697,7 +10691,7 @@
         <v>406</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -10726,7 +10720,7 @@
         <v>408</v>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -10755,7 +10749,7 @@
         <v>410</v>
       </c>
       <c r="G212" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -10958,7 +10952,7 @@
         <v>424</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -10987,7 +10981,7 @@
         <v>426</v>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -11364,7 +11358,7 @@
         <v>452</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -11393,7 +11387,7 @@
         <v>454</v>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -11422,7 +11416,7 @@
         <v>456</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -11451,7 +11445,7 @@
         <v>458</v>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -12524,7 +12518,7 @@
         <v>532</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -12582,7 +12576,7 @@
         <v>536</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -12785,7 +12779,7 @@
         <v>550</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -12843,7 +12837,7 @@
         <v>554</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -13307,7 +13301,7 @@
         <v>586</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -13336,7 +13330,7 @@
         <v>588</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -13742,7 +13736,7 @@
         <v>616</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -13771,7 +13765,7 @@
         <v>618</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -13887,7 +13881,7 @@
         <v>626</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -13945,7 +13939,7 @@
         <v>630</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -14322,7 +14316,7 @@
         <v>656</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -14351,7 +14345,7 @@
         <v>658</v>
       </c>
       <c r="G336" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -14409,7 +14403,7 @@
         <v>662</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -14467,7 +14461,7 @@
         <v>666</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -14496,7 +14490,7 @@
         <v>668</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -14525,7 +14519,7 @@
         <v>670</v>
       </c>
       <c r="G342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -14554,7 +14548,7 @@
         <v>672</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -14583,7 +14577,7 @@
         <v>674</v>
       </c>
       <c r="G344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -14612,7 +14606,7 @@
         <v>676</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -14641,7 +14635,7 @@
         <v>678</v>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -15192,7 +15186,7 @@
         <v>716</v>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -15221,7 +15215,7 @@
         <v>718</v>
       </c>
       <c r="G366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -15366,7 +15360,7 @@
         <v>728</v>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -15395,7 +15389,7 @@
         <v>730</v>
       </c>
       <c r="G372" t="n">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -15424,7 +15418,7 @@
         <v>732</v>
       </c>
       <c r="G373" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -17744,7 +17738,7 @@
         <v>892</v>
       </c>
       <c r="G453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H453" t="s">
         <v>4</v>
@@ -17802,7 +17796,7 @@
         <v>896</v>
       </c>
       <c r="G455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -19803,7 +19797,7 @@
         <v>1034</v>
       </c>
       <c r="G524" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -19832,7 +19826,7 @@
         <v>1036</v>
       </c>
       <c r="G525" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -19855,10 +19849,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1037</v>
+        <v>167</v>
       </c>
       <c r="F526" t="s">
-        <v>1038</v>
+        <v>168</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19884,10 +19878,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>169</v>
+        <v>1037</v>
       </c>
       <c r="F527" t="s">
-        <v>170</v>
+        <v>1038</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19948,7 +19942,7 @@
         <v>1042</v>
       </c>
       <c r="G529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -19977,7 +19971,7 @@
         <v>1044</v>
       </c>
       <c r="G530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H530" t="s">
         <v>4</v>
@@ -20319,10 +20313,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1067</v>
+        <v>363</v>
       </c>
       <c r="F542" t="s">
-        <v>1068</v>
+        <v>364</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -20348,10 +20342,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>365</v>
+        <v>1067</v>
       </c>
       <c r="F543" t="s">
-        <v>366</v>
+        <v>1068</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -20464,10 +20458,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="F547" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20493,10 +20487,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1053</v>
+        <v>389</v>
       </c>
       <c r="F548" t="s">
-        <v>1054</v>
+        <v>390</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20522,10 +20516,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>391</v>
+        <v>1075</v>
       </c>
       <c r="F549" t="s">
-        <v>392</v>
+        <v>1076</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20812,10 +20806,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1095</v>
+        <v>143</v>
       </c>
       <c r="F559" t="s">
-        <v>1096</v>
+        <v>144</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20841,10 +20835,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>145</v>
+        <v>1095</v>
       </c>
       <c r="F560" t="s">
-        <v>146</v>
+        <v>1096</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20905,7 +20899,7 @@
         <v>1100</v>
       </c>
       <c r="G562" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H562" t="s">
         <v>4</v>
@@ -20934,7 +20928,7 @@
         <v>1102</v>
       </c>
       <c r="G563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H563" t="s">
         <v>4</v>
@@ -20963,7 +20957,7 @@
         <v>1104</v>
       </c>
       <c r="G564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H564" t="s">
         <v>4</v>
@@ -20986,10 +20980,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1105</v>
+        <v>347</v>
       </c>
       <c r="F565" t="s">
-        <v>1106</v>
+        <v>348</v>
       </c>
       <c r="G565" t="n">
         <v>2</v>
@@ -21015,13 +21009,13 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>349</v>
+        <v>1105</v>
       </c>
       <c r="F566" t="s">
-        <v>350</v>
+        <v>1106</v>
       </c>
       <c r="G566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H566" t="s">
         <v>4</v>
@@ -21688,7 +21682,7 @@
         <v>1152</v>
       </c>
       <c r="G589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H589" t="s">
         <v>4</v>
@@ -21717,7 +21711,7 @@
         <v>1154</v>
       </c>
       <c r="G590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H590" t="s">
         <v>4</v>
@@ -22761,7 +22755,7 @@
         <v>1226</v>
       </c>
       <c r="G626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H626" t="s">
         <v>4</v>
@@ -22819,7 +22813,7 @@
         <v>1230</v>
       </c>
       <c r="G628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -22848,7 +22842,7 @@
         <v>1232</v>
       </c>
       <c r="G629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -22906,7 +22900,7 @@
         <v>1236</v>
       </c>
       <c r="G631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H631" t="s">
         <v>4</v>
@@ -22993,7 +22987,7 @@
         <v>1242</v>
       </c>
       <c r="G634" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H634" t="s">
         <v>4</v>
@@ -23022,7 +23016,7 @@
         <v>1244</v>
       </c>
       <c r="G635" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -23080,7 +23074,7 @@
         <v>1248</v>
       </c>
       <c r="G637" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H637" t="s">
         <v>4</v>
@@ -23167,7 +23161,7 @@
         <v>1254</v>
       </c>
       <c r="G640" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H640" t="s">
         <v>4</v>
@@ -23196,7 +23190,7 @@
         <v>1256</v>
       </c>
       <c r="G641" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H641" t="s">
         <v>4</v>
@@ -23254,7 +23248,7 @@
         <v>1260</v>
       </c>
       <c r="G643" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H643" t="s">
         <v>4</v>
@@ -23283,7 +23277,7 @@
         <v>1262</v>
       </c>
       <c r="G644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -23312,7 +23306,7 @@
         <v>1264</v>
       </c>
       <c r="G645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -23341,7 +23335,7 @@
         <v>1266</v>
       </c>
       <c r="G646" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -23399,7 +23393,7 @@
         <v>1270</v>
       </c>
       <c r="G648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H648" t="s">
         <v>4</v>
@@ -23451,10 +23445,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1273</v>
+        <v>1113</v>
       </c>
       <c r="F650" t="s">
-        <v>1274</v>
+        <v>1114</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23480,13 +23474,13 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1115</v>
+        <v>1273</v>
       </c>
       <c r="F651" t="s">
-        <v>1116</v>
+        <v>1274</v>
       </c>
       <c r="G651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -23544,7 +23538,7 @@
         <v>1278</v>
       </c>
       <c r="G653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H653" t="s">
         <v>4</v>
@@ -23573,7 +23567,7 @@
         <v>1280</v>
       </c>
       <c r="G654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H654" t="s">
         <v>4</v>
@@ -23660,7 +23654,7 @@
         <v>1286</v>
       </c>
       <c r="G657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H657" t="s">
         <v>4</v>
@@ -23689,7 +23683,7 @@
         <v>1288</v>
       </c>
       <c r="G658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H658" t="s">
         <v>4</v>
@@ -23776,7 +23770,7 @@
         <v>1294</v>
       </c>
       <c r="G661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H661" t="s">
         <v>4</v>
@@ -23892,7 +23886,7 @@
         <v>1302</v>
       </c>
       <c r="G665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H665" t="s">
         <v>4</v>
@@ -23950,7 +23944,7 @@
         <v>1306</v>
       </c>
       <c r="G667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -23979,7 +23973,7 @@
         <v>1308</v>
       </c>
       <c r="G668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -24008,7 +24002,7 @@
         <v>1310</v>
       </c>
       <c r="G669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H669" t="s">
         <v>4</v>
@@ -24060,10 +24054,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1313</v>
+        <v>327</v>
       </c>
       <c r="F671" t="s">
-        <v>1314</v>
+        <v>328</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -24089,10 +24083,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>329</v>
+        <v>1313</v>
       </c>
       <c r="F672" t="s">
-        <v>330</v>
+        <v>1314</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -24118,10 +24112,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1315</v>
+        <v>331</v>
       </c>
       <c r="F673" t="s">
-        <v>1316</v>
+        <v>332</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -24147,10 +24141,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>333</v>
+        <v>1315</v>
       </c>
       <c r="F674" t="s">
-        <v>334</v>
+        <v>1316</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -24205,13 +24199,13 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1319</v>
+        <v>387</v>
       </c>
       <c r="F676" t="s">
-        <v>1320</v>
+        <v>388</v>
       </c>
       <c r="G676" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -24234,13 +24228,13 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>389</v>
+        <v>1319</v>
       </c>
       <c r="F677" t="s">
-        <v>390</v>
+        <v>1320</v>
       </c>
       <c r="G677" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H677" t="s">
         <v>4</v>
@@ -24733,7 +24727,7 @@
         <v>1354</v>
       </c>
       <c r="G694" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H694" t="s">
         <v>4</v>
@@ -24762,7 +24756,7 @@
         <v>1356</v>
       </c>
       <c r="G695" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -24791,7 +24785,7 @@
         <v>1358</v>
       </c>
       <c r="G696" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -24907,7 +24901,7 @@
         <v>1366</v>
       </c>
       <c r="G700" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H700" t="s">
         <v>4</v>
@@ -24936,7 +24930,7 @@
         <v>1368</v>
       </c>
       <c r="G701" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H701" t="s">
         <v>4</v>
@@ -25458,7 +25452,7 @@
         <v>1404</v>
       </c>
       <c r="G719" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H719" t="s">
         <v>4</v>
@@ -25487,7 +25481,7 @@
         <v>1406</v>
       </c>
       <c r="G720" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H720" t="s">
         <v>4</v>
@@ -25574,7 +25568,7 @@
         <v>1412</v>
       </c>
       <c r="G723" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H723" t="s">
         <v>4</v>
@@ -25597,47 +25591,18 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F724" t="s">
         <v>1413</v>
       </c>
-      <c r="F724" t="s">
-        <v>1414</v>
-      </c>
       <c r="G724" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H724" t="s">
         <v>4</v>
       </c>
       <c r="I724" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="725" spans="1:9">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="s">
-        <v>0</v>
-      </c>
-      <c r="C725" t="s">
-        <v>1</v>
-      </c>
-      <c r="D725" t="n">
-        <v>724</v>
-      </c>
-      <c r="E725" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F725" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G725" t="n">
-        <v>1</v>
-      </c>
-      <c r="H725" t="s">
-        <v>4</v>
-      </c>
-      <c r="I725" t="n">
         <v>3</v>
       </c>
     </row>
